--- a/dist/ProcessoSeletivo.xlsx
+++ b/dist/ProcessoSeletivo.xlsx
@@ -1073,12 +1073,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>branco</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>indigena</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
